--- a/DB/data/DataEJ.xlsx
+++ b/DB/data/DataEJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunjin\Documents\카카오톡 받은 파일\2차플젝\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2ndProject\hello01\DB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5525FD39-59F4-4ED6-8A12-625CFD730B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660F8E6-B2AD-450F-A3C5-8EAF32DA3C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D14BFD7-79D8-4DE8-A877-3C03497B0048}"/>
+    <workbookView xWindow="1950" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5D14BFD7-79D8-4DE8-A877-3C03497B0048}"/>
   </bookViews>
   <sheets>
     <sheet name="레시피 데이터" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>채소 바삭하게 튀기는 법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치 쉽게 썰어 담는 법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,12 +765,16 @@
 9. 불을 끄고 통깨 솔솔 뿌려줍니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>김치 예쁘고 쉽게 썰어 담는 법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,6 +924,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1369,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,6 +1620,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,11 +1948,11 @@
   </sheetPr>
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM10" sqref="AM10"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1991,16 +2006,16 @@
       <c r="H1" s="37"/>
       <c r="I1" s="38"/>
       <c r="J1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="37"/>
       <c r="O1" s="38"/>
@@ -2014,10 +2029,10 @@
       <c r="W1" s="26"/>
       <c r="X1" s="25"/>
       <c r="Y1" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="44" t="s">
         <v>87</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>88</v>
       </c>
       <c r="AA1" s="44"/>
       <c r="AB1" s="51" t="s">
@@ -2034,16 +2049,16 @@
       <c r="AK1" s="52"/>
       <c r="AL1" s="52"/>
       <c r="AM1" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN1" s="45"/>
       <c r="AO1" s="45"/>
       <c r="AP1" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="45"/>
       <c r="AT1" s="45"/>
@@ -2069,96 +2084,96 @@
         <v>28</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="R2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>68</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>69</v>
       </c>
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
       <c r="V2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="Y2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="AA2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AC2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AF2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="33" t="s">
-        <v>69</v>
-      </c>
       <c r="AH2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI2" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="AJ2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="57" t="s">
+      <c r="AL2" s="58" t="s">
         <v>96</v>
-      </c>
-      <c r="AL2" s="58" t="s">
-        <v>97</v>
       </c>
       <c r="AM2" s="54" t="s">
         <v>1</v>
@@ -2188,27 +2203,27 @@
         <v>15</v>
       </c>
       <c r="AV2" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW2" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="AW2" s="47" t="s">
+      <c r="AX2" s="47" t="s">
         <v>114</v>
-      </c>
-      <c r="AX2" s="47" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="28">
         <v>4</v>
@@ -2229,56 +2244,56 @@
       <c r="T3" s="36"/>
       <c r="U3" s="12"/>
       <c r="V3" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W3" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="Y3" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3" s="24" t="s">
+      <c r="AA3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AC3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AD3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AE3" s="34" t="s">
-        <v>106</v>
-      </c>
       <c r="AF3" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="34" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" s="59" t="s">
+      <c r="AK3" s="53" t="s">
         <v>111</v>
-      </c>
-      <c r="AK3" s="53" t="s">
-        <v>112</v>
       </c>
       <c r="AL3" s="60"/>
       <c r="AM3" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN3" s="16"/>
       <c r="AO3" s="15"/>
@@ -2294,98 +2309,98 @@
     </row>
     <row r="4" spans="1:50" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F4" s="28">
         <v>2</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="L4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="O4" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+      <c r="T4" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="24" t="s">
+      <c r="U4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="U4" s="34" t="s">
-        <v>140</v>
-      </c>
       <c r="V4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="Y4" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="Z4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="AA4" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="AB4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AC4" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AD4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AE4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="AD4" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="AH4" s="31"/>
       <c r="AI4" s="34"/>
@@ -2393,7 +2408,7 @@
       <c r="AK4" s="53"/>
       <c r="AL4" s="60"/>
       <c r="AM4" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN4" s="5"/>
       <c r="AO4" s="1"/>
@@ -2409,22 +2424,22 @@
     </row>
     <row r="5" spans="1:50" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="28">
         <v>2</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="34"/>
@@ -2441,40 +2456,40 @@
       <c r="T5" s="36"/>
       <c r="U5" s="34"/>
       <c r="V5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC5" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD5" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="W5" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z5" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA5" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC5" s="34" t="s">
+      <c r="AE5" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AF5" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AG5" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="AF5" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>152</v>
       </c>
       <c r="AH5" s="36"/>
       <c r="AI5" s="34"/>
@@ -2482,7 +2497,7 @@
       <c r="AK5" s="53"/>
       <c r="AL5" s="60"/>
       <c r="AM5" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AN5" s="5"/>
       <c r="AO5" s="1"/>
@@ -2498,72 +2513,72 @@
     </row>
     <row r="6" spans="1:50" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="K6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="31" t="s">
+      <c r="M6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="39" t="s">
+      <c r="P6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="31" t="s">
-        <v>83</v>
-      </c>
       <c r="Q6" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="34"/>
       <c r="V6" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z6" s="36"/>
       <c r="AA6" s="34"/>
@@ -2579,7 +2594,7 @@
       <c r="AK6" s="53"/>
       <c r="AL6" s="60"/>
       <c r="AM6" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN6" s="5"/>
       <c r="AO6" s="1"/>
@@ -2595,78 +2610,78 @@
     </row>
     <row r="7" spans="1:50" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="28">
         <v>2</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="K7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="Q7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Q7" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="R7" s="36" t="s">
+      <c r="S7" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>167</v>
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="W7" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="W7" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="X7" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y7" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="Y7" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="Z7" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA7" s="34"/>
       <c r="AB7" s="36"/>
@@ -2681,7 +2696,7 @@
       <c r="AK7" s="53"/>
       <c r="AL7" s="60"/>
       <c r="AM7" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN7" s="5"/>
       <c r="AO7" s="1"/>
@@ -2697,34 +2712,34 @@
     </row>
     <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F8" s="28">
         <v>4</v>
       </c>
       <c r="G8" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>188</v>
-      </c>
       <c r="K8" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="34"/>
@@ -2735,34 +2750,34 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="W8" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="X8" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC8" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="X8" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y8" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z8" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA8" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB8" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC8" s="34" t="s">
-        <v>175</v>
-      </c>
       <c r="AD8" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE8" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="AE8" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="AF8" s="24"/>
       <c r="AG8" s="34"/>
@@ -2771,7 +2786,7 @@
       <c r="AK8" s="53"/>
       <c r="AL8" s="60"/>
       <c r="AM8" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="1"/>
@@ -3097,60 +3112,60 @@
     <row r="17" spans="18:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R19" s="74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S19" s="74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
     </row>
     <row r="20" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R20" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S20" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
     </row>
     <row r="21" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R21" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S21" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
     </row>
     <row r="22" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R22" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S22" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
     </row>
     <row r="23" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R23" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S23" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T23" s="74"/>
       <c r="U23" s="74"/>
     </row>
     <row r="24" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R24" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S24" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
@@ -3175,8 +3190,8 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3199,7 +3214,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -3251,23 +3266,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -3285,7 +3300,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -3359,20 +3374,20 @@
       <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -3463,26 +3478,26 @@
       <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -3499,7 +3514,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>31</v>
